--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3717.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.352033284553211</v>
+        <v>1.733288645744324</v>
       </c>
       <c r="B1">
-        <v>2.840446460145931</v>
+        <v>4.094292163848877</v>
       </c>
       <c r="C1">
-        <v>6.507375439115537</v>
+        <v>3.195954084396362</v>
       </c>
       <c r="D1">
-        <v>1.984958852093113</v>
+        <v>1.599943518638611</v>
       </c>
       <c r="E1">
-        <v>1.032512215655729</v>
+        <v>0.7425632476806641</v>
       </c>
     </row>
   </sheetData>
